--- a/ATMCP/Capitulo-12-Planilhas-de-Excel/example_sheet_00.xlsx
+++ b/ATMCP/Capitulo-12-Planilhas-de-Excel/example_sheet_00.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t xml:space="preserve">Apples</t>
   </si>
@@ -143,10 +143,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,9 +163,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0.153738425925926</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
@@ -215,6 +213,17 @@
       </c>
       <c r="C6" s="0" t="n">
         <v>865</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>0.392210648148148</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
